--- a/strona_tytulowa.xlsx
+++ b/strona_tytulowa.xlsx
@@ -1,19 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\projects\electrical_measurements\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504648EE-A6B6-4D2B-A8EC-F6E121B5E4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="255" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-25320" yWindow="255" windowWidth="25440" windowHeight="15390" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -41,168 +34,83 @@
     <definedName name="Zmiasto">[1]DANE!$B$4</definedName>
     <definedName name="Zulica">[1]DANE!$B$3</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
-  <si>
-    <t>P R O T O K Ó Ł</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BADANIA SKUTECZNOŚĆ OCHRONY PRZECIWPORAŻENIOWEJ ORAZ STANU IZOLACJI </t>
-  </si>
-  <si>
-    <t>NAZWA</t>
-  </si>
-  <si>
-    <t>ulica</t>
-  </si>
-  <si>
-    <t>kod/miasto</t>
-  </si>
-  <si>
-    <t>OBIEKT</t>
-  </si>
-  <si>
-    <t>BADANIA WYKONAŁ</t>
-  </si>
-  <si>
-    <t>APARATY POMIAROWE</t>
-  </si>
-  <si>
-    <t>DATA BADANIA</t>
-  </si>
-  <si>
-    <t>TEMPERATURA</t>
-  </si>
-  <si>
-    <t>12*C</t>
-  </si>
-  <si>
-    <t>POGODA</t>
-  </si>
-  <si>
-    <t>Słonecznie</t>
-  </si>
-  <si>
-    <t>RODZAJ BADANIA</t>
-  </si>
-  <si>
-    <t>kontrolne</t>
-  </si>
-  <si>
-    <t>UKŁAD SIECI</t>
-  </si>
-  <si>
-    <t>TN-C</t>
-  </si>
-  <si>
-    <t>NAPIĘCIE ZASILANIA</t>
-  </si>
-  <si>
-    <t>400/230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RODZAJ OCHRONY </t>
-  </si>
-  <si>
-    <t>zerowanie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WYNIKI POMIARÓW </t>
-  </si>
-  <si>
-    <t>W zakresie przeprowadzonych badań: rezystancji izolacji oraz ochrony przeciwporażenioweji, zainstalowane urządzenia spełniają wymogi przepisów PN-IEC 60364-4-41.Ćągłość obwodu ochronnego PE została zachowana.</t>
-  </si>
-  <si>
-    <t>NASTĘPNE BADANIE</t>
-  </si>
-  <si>
-    <t>.........................................</t>
-  </si>
-  <si>
-    <t>data i podpis</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
-    <font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="11">
+    <font>
+      <name val="Arial"/>
       <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color indexed="8"/>
+    </font>
+    <font>
       <name val="Arial CE"/>
       <family val="2"/>
-    </font>
-    <font>
+      <b val="1"/>
+      <color indexed="8"/>
+      <sz val="20"/>
+    </font>
+    <font>
+      <name val="Arial CE"/>
+      <color indexed="8"/>
       <sz val="12"/>
+    </font>
+    <font>
+      <name val="Arial CE"/>
       <color indexed="8"/>
+      <sz val="10"/>
+    </font>
+    <font>
       <name val="Arial CE"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color indexed="8"/>
-      <name val="Arial CE"/>
-    </font>
-    <font>
       <sz val="20"/>
-      <color indexed="8"/>
-      <name val="Arial CE"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
+    </font>
+    <font>
       <name val="Arial CE"/>
       <family val="2"/>
-    </font>
-    <font>
+      <color indexed="8"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Arial CE"/>
+      <charset val="238"/>
+      <family val="2"/>
+      <color indexed="8"/>
       <sz val="14"/>
+    </font>
+    <font>
+      <name val="Arial CE"/>
+      <charset val="238"/>
+      <family val="2"/>
       <color indexed="8"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Arial CE"/>
+      <charset val="238"/>
+      <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial CE"/>
+      <b val="1"/>
+      <color indexed="8"/>
+      <sz val="12"/>
+    </font>
+    <font>
       <name val="Arial CE"/>
       <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color indexed="8"/>
-      <name val="Arial CE"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial CE"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Arial CE"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial CE"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -221,129 +129,188 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="1" hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="1" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="1" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="1" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="1" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="1" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="1" hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="1" hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="1" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="1" hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="1" hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="1" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection hidden="1"/>
+      <protection locked="1" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="1" hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook r:id="rId1">
     <sheetNames>
       <sheetName val="DANE"/>
     </sheetNames>
@@ -686,235 +653,301 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="64.28515625" customWidth="1"/>
+    <col width="31" customWidth="1" min="1" max="1"/>
+    <col width="64.28515625" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26"/>
-    </row>
-    <row r="2" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="23"/>
-    </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-    </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-    </row>
-    <row r="6" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="8"/>
-    </row>
-    <row r="8" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="9"/>
-    </row>
-    <row r="9" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="8"/>
-    </row>
-    <row r="11" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="9"/>
-    </row>
-    <row r="12" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="11"/>
-    </row>
-    <row r="13" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="11"/>
-    </row>
-    <row r="14" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="11"/>
-    </row>
-    <row r="15" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="12"/>
-    </row>
-    <row r="16" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="11"/>
-    </row>
-    <row r="17" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="11"/>
-    </row>
-    <row r="18" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="23"/>
-    </row>
-    <row r="26" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="23"/>
-    </row>
-    <row r="27" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="23"/>
-    </row>
-    <row r="28" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="11"/>
-    </row>
-    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
-    </row>
-    <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
-    </row>
-    <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="17"/>
-    </row>
-    <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
-      <c r="B32" s="17"/>
-    </row>
-    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="19"/>
-      <c r="B33" s="17"/>
-    </row>
-    <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="17"/>
-    </row>
-    <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-    </row>
-    <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-    </row>
-    <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="17"/>
-      <c r="B38" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="17"/>
-      <c r="B39" s="21" t="s">
-        <v>26</v>
+    <row r="1" ht="26.25" customHeight="1">
+      <c r="A1" s="25" t="inlineStr">
+        <is>
+          <t>P R O T O K Ó Ł</t>
+        </is>
+      </c>
+      <c r="B1" s="26" t="n"/>
+    </row>
+    <row r="2" ht="25.5" customHeight="1">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NR </t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="n"/>
+    </row>
+    <row r="3" ht="39.75" customHeight="1">
+      <c r="A3" s="24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BADANIA SKUTECZNOŚĆ OCHRONY PRZECIWPORAŻENIOWEJ ORAZ STANU IZOLACJI </t>
+        </is>
+      </c>
+      <c r="B3" s="23" t="n"/>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" s="5" t="n"/>
+      <c r="B4" s="5" t="n"/>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" s="5" t="n"/>
+      <c r="B5" s="5" t="n"/>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>NAZWA</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n"/>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>ulica</t>
+        </is>
+      </c>
+      <c r="B7" s="8" t="n"/>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>kod/miasto</t>
+        </is>
+      </c>
+      <c r="B8" s="9" t="n"/>
+    </row>
+    <row r="9" ht="18" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>OBIEKT</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n"/>
+    </row>
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>ulica</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="n"/>
+    </row>
+    <row r="11" ht="18" customHeight="1">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>kod/miasto</t>
+        </is>
+      </c>
+      <c r="B11" s="9" t="n"/>
+    </row>
+    <row r="12" ht="18" customHeight="1">
+      <c r="A12" s="10" t="inlineStr">
+        <is>
+          <t>BADANIA WYKONAŁ</t>
+        </is>
+      </c>
+      <c r="B12" s="11" t="inlineStr"/>
+    </row>
+    <row r="13" ht="18" customHeight="1">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>ulica</t>
+        </is>
+      </c>
+      <c r="B13" s="11" t="inlineStr"/>
+    </row>
+    <row r="14" ht="18" customHeight="1">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>kod/miasto</t>
+        </is>
+      </c>
+      <c r="B14" s="11" t="inlineStr"/>
+    </row>
+    <row r="15" ht="18" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>APARATY POMIAROWE</t>
+        </is>
+      </c>
+      <c r="B15" s="12" t="inlineStr"/>
+    </row>
+    <row r="16" ht="18" customHeight="1">
+      <c r="A16" s="6" t="n"/>
+      <c r="B16" s="11" t="n"/>
+    </row>
+    <row r="17" ht="18" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>DATA BADANIA</t>
+        </is>
+      </c>
+      <c r="B17" s="11" t="n"/>
+    </row>
+    <row r="18" ht="18" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>TEMPERATURA</t>
+        </is>
+      </c>
+      <c r="B18" s="11" t="inlineStr">
+        <is>
+          <t>12*C</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="18" customHeight="1">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>POGODA</t>
+        </is>
+      </c>
+      <c r="B19" s="11" t="inlineStr">
+        <is>
+          <t>Słonecznie</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="18" customHeight="1">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>RODZAJ BADANIA</t>
+        </is>
+      </c>
+      <c r="B20" s="11" t="inlineStr">
+        <is>
+          <t>kontrolne</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="18" customHeight="1">
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>UKŁAD SIECI</t>
+        </is>
+      </c>
+      <c r="B21" s="12" t="inlineStr">
+        <is>
+          <t>TN-C</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="18" customHeight="1">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>NAPIĘCIE ZASILANIA</t>
+        </is>
+      </c>
+      <c r="B22" s="12" t="inlineStr">
+        <is>
+          <t>400/230</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="18" customHeight="1">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RODZAJ OCHRONY </t>
+        </is>
+      </c>
+      <c r="B23" s="11" t="inlineStr">
+        <is>
+          <t>zerowanie</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="18" customHeight="1">
+      <c r="A24" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WYNIKI POMIARÓW </t>
+        </is>
+      </c>
+      <c r="B24" s="22" t="inlineStr">
+        <is>
+          <t>W zakresie przeprowadzonych badań: rezystancji izolacji oraz ochrony przeciwporażenioweji, zainstalowane urządzenia spełniają wymogi przepisów PN-IEC 60364-4-41.Ćągłość obwodu ochronnego PE została zachowana.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="18" customHeight="1">
+      <c r="A25" s="6" t="n"/>
+      <c r="B25" s="23" t="n"/>
+    </row>
+    <row r="26" ht="18" customHeight="1">
+      <c r="A26" s="6" t="n"/>
+      <c r="B26" s="23" t="n"/>
+    </row>
+    <row r="27" ht="18" customHeight="1">
+      <c r="A27" s="6" t="n"/>
+      <c r="B27" s="23" t="n"/>
+    </row>
+    <row r="28" ht="18" customHeight="1">
+      <c r="A28" s="6" t="inlineStr">
+        <is>
+          <t>NASTĘPNE BADANIE</t>
+        </is>
+      </c>
+      <c r="B28" s="11" t="n"/>
+    </row>
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" s="13" t="n"/>
+      <c r="B29" s="14" t="n"/>
+    </row>
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" s="15" t="n"/>
+      <c r="B30" s="16" t="n"/>
+    </row>
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" s="15" t="n"/>
+      <c r="B31" s="17" t="n"/>
+    </row>
+    <row r="32" ht="15" customHeight="1">
+      <c r="A32" s="18" t="n"/>
+      <c r="B32" s="17" t="n"/>
+    </row>
+    <row r="33" ht="15" customHeight="1">
+      <c r="A33" s="19" t="n"/>
+      <c r="B33" s="17" t="n"/>
+    </row>
+    <row r="34" ht="15" customHeight="1">
+      <c r="A34" s="13" t="n"/>
+      <c r="B34" s="17" t="n"/>
+    </row>
+    <row r="35" ht="15" customHeight="1">
+      <c r="A35" s="17" t="n"/>
+      <c r="B35" s="17" t="n"/>
+    </row>
+    <row r="36" ht="15" customHeight="1">
+      <c r="A36" s="17" t="n"/>
+      <c r="B36" s="17" t="n"/>
+    </row>
+    <row r="37" ht="15" customHeight="1">
+      <c r="A37" s="17" t="n"/>
+      <c r="B37" s="17" t="n"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="17" t="n"/>
+      <c r="B38" s="20" t="inlineStr">
+        <is>
+          <t>.........................................</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="15" customHeight="1">
+      <c r="A39" s="17" t="n"/>
+      <c r="B39" s="21" t="inlineStr">
+        <is>
+          <t>data i podpis</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -924,6 +957,6 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="93" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93"/>
 </worksheet>
 </file>